--- a/db_data_insert/测试数据/周五处方细节.xlsx
+++ b/db_data_insert/测试数据/周五处方细节.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\a桌面\学习\大三下\信息系统分析与设计\信息系统\test数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BUAA\Courses\经管课程\信息系统分析与设计\MIS_Project\HIS_void\db_data_insert\测试数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864E4D4D-DB8F-4088-92AE-8D1F0F9941AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5235A2-2DDB-452C-92EF-8FCCDF5952C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>就诊号</t>
   </si>
@@ -81,6 +81,14 @@
   </si>
   <si>
     <t>A00011</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处方编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -90,7 +98,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,12 +134,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -412,259 +423,332 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>328</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3">
+        <v>142</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44361.541666666664</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>329</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3">
+        <v>142</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>44361.541666666664</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>330</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3">
+        <v>142</v>
+      </c>
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F4" s="1">
+        <v>44361.541666666664</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>331</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3">
+        <v>143</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>44361.333333333336</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>332</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3">
+        <v>143</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44361.333333333336</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>333</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3">
+        <v>144</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>44359.541666666664</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>334</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3">
+        <v>144</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>44359.541666666664</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>335</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3">
+        <v>145</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>44359.541666666664</v>
+      </c>
+      <c r="G9">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>44361.541666666664</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>44361.541666666664</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>44361.541666666664</v>
-      </c>
-      <c r="D4">
+      <c r="H9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>336</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3">
+        <v>145</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>44359.541666666664</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>337</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3">
+        <v>145</v>
+      </c>
+      <c r="E11">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>44361.333333333336</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>44361.333333333336</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="F11" s="1">
         <v>44359.541666666664</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>338</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3">
+        <v>145</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1">
         <v>44359.541666666664</v>
       </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9">
+      <c r="G12">
         <v>4</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>44359.541666666664</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>44359.541666666664</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>44359.541666666664</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1">
-        <v>44359.541666666664</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12">
-        <v>7</v>
+      <c r="H12">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>